--- a/medicine/Mort/Lémure/Lémure.xlsx
+++ b/medicine/Mort/Lémure/Lémure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9mure</t>
+          <t>Lémure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lémures sont des spectres malfaisants issus des croyances de l'antiquité romaine. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9mure</t>
+          <t>Lémure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Antiquité romaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La mythologie romaine assimile les lémures aux âmes damnées d’hommes et de femmes ne pouvant trouver le repos car ils ont connu une mort tragique ou particulièrement violente ou étant privés de sépulture. Ils viennent souvent hanter les demeures des vivants. Pour les mettre en fuite (car leur révocation n’est pas possible), le peuple romain célébrait la fête des Lemuria les 9, 11 et 13 mai. Chaque père de famille accomplissait les rites dans son foyer.  Cette pratique visait à apaiser d'éventuelles apparitions pour épargner les vivants.
 Dans Fastes, Ovide explique : 
